--- a/data/case1/5/details_14.xlsx
+++ b/data/case1/5/details_14.xlsx
@@ -63,10 +63,10 @@
     <col min="5" max="5" width="2.140625" customWidth="true"/>
     <col min="6" max="6" width="2.140625" customWidth="true"/>
     <col min="7" max="7" width="3.140625" customWidth="true"/>
-    <col min="8" max="8" width="2.140625" customWidth="true"/>
+    <col min="8" max="8" width="3.140625" customWidth="true"/>
     <col min="9" max="9" width="3.140625" customWidth="true"/>
     <col min="10" max="10" width="3.140625" customWidth="true"/>
-    <col min="11" max="11" width="4.7109375" customWidth="true"/>
+    <col min="11" max="11" width="5.7109375" customWidth="true"/>
     <col min="12" max="12" width="5.7109375" customWidth="true"/>
     <col min="13" max="13" width="5.7109375" customWidth="true"/>
     <col min="14" max="14" width="5.7109375" customWidth="true"/>
@@ -80,40 +80,40 @@
         <v>4</v>
       </c>
       <c r="C1" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F1" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H1" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.064000000000000001</v>
       </c>
       <c r="L1" s="0">
-        <v>0.098000000000000004</v>
+        <v>0.064000000000000001</v>
       </c>
       <c r="M1" s="0">
-        <v>0.025000000000000001</v>
+        <v>0.035999999999999997</v>
       </c>
       <c r="N1" s="0">
-        <v>0.055</v>
+        <v>0.036999999999999998</v>
       </c>
     </row>
   </sheetData>
